--- a/data.xlsx
+++ b/data.xlsx
@@ -424,7 +424,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
@@ -533,7 +533,7 @@
     </row>
     <row r="8">
       <c r="A8" s="3" t="n">
-        <v>45344.65611178204</v>
+        <v>45344.65611178241</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -542,6 +542,71 @@
       </c>
       <c r="C8" t="n">
         <v>12.05</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="n">
+        <v>45345.45480851852</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Minsk, BY</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>3.86</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="3" t="n">
+        <v>45345.45519405093</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Berlin, DE</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>9.119999999999999</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="3" t="n">
+        <v>45345.45524670139</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Moscow, RU</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>-0.49</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="3" t="n">
+        <v>45345.45551869213</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Babruysk, BY</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>6.54</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="3" t="n">
+        <v>45345.45917772495</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Michigan, US</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>1.04</v>
       </c>
     </row>
   </sheetData>
